--- a/biology/Zoologie/Austrolestes_analis/Austrolestes_analis.xlsx
+++ b/biology/Zoologie/Austrolestes_analis/Austrolestes_analis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Austrolestes analis est une espèce de demoiselles de la famille des Lestidae originaire d'Australie
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a été décrite pour la première fois par Pierre Rambur en 1842[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a été décrite pour la première fois par Pierre Rambur en 1842.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son abdomen mesure 3 à 3,2 cm de long[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son abdomen mesure 3 à 3,2 cm de long
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la trouve dans le sud-ouest de l'Australie-Occidentale, le sud-est de l'Australie-Méridionale, le Victoria, la Nouvelle-Galles du Sud[1] et la Tasmanie[2].
-Elle est active du printemps à l'automne près des lacs, des rivières à débit lent et dans la végétation à proximité[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la trouve dans le sud-ouest de l'Australie-Occidentale, le sud-est de l'Australie-Méridionale, le Victoria, la Nouvelle-Galles du Sud et la Tasmanie.
+Elle est active du printemps à l'automne près des lacs, des rivières à débit lent et dans la végétation à proximité.
 </t>
         </is>
       </c>
